--- a/DOM_Banner/output/dept0713/Tara F Carr_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Tara F Carr_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Allergy &amp; Immunology, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Northwell Health, Great Neck, NY; Institute of Health System Science, Feinstein Institutes for Medical Research, Northwell Health, Manhasset, NY; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Division of Allergy, Asthma, and Clinical Immunology, Mayo Clinic, Phoenix and Scottsdale, Ariz; Division of Pulmonology, Phoenix Children’s Hospital, Phoenix, Ariz; University Hospital, Montpellier, France; Universitätsmedizin Berlin, Corporate Member of Freie Universität Berlin, and Humboldt-Universität zu Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296630901</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Nonallergic Rhinitis, Allergic Rhinitis, and Immunotherapy: Advances in the Last Decade</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2022.09.010</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36152989</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2022.09.010</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pediatrics, Medical College of Georgia at Augusta University, Augusta, Georgia; Clinical Research at Pulmonary and Allergy Associates, Cedar Knolls, New Jersey; Department of Medicine at University of Medicine and Dentistry New Jersey-Rutgers, Newark, New Jersey; Department of Pediatrics, University of Louisville, Louisville, Kentucky; Department of Pediatrics, Monroe Carell Jr Children's Hospital at Vanderbilt, Nashville, Tennessee; University of Cincinnati College of Medicine, Division of Rheumatology, Allergy and Immunology, Cincinnati, Ohio; Asthma and Airway Disease Research Center, The University of Arizona, Tucson, Arizona; Capital Allergy and Respiratory Disease Center, Sacramento, California; Faculté de médecine et des sciences de la santé, Université de Sherbrooke, Sherbrooke, Québec, Canada; Department of Pediatrics, Indiana University School of Medicine, Indianapolis, Indiana; Department of Pediatrics and Medicine, Division of Pediatric Allergy, Immunology, and Rheumatology, Division of Allergy and Clinical Immunology, Johns Hopkins University School of Medicine, Baltimore, Maryland; Division of Pulmonary Critical Care Medicine University of Michigan, Ann Arbor, Michigan; Medical College of Georgia, Augusta, Georgia; Department of Pediatrics, Allergy/Immunology Fellowship Program, University of Wisconsin-Madison, Madison, Wisconsin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386516328</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Consensus of an American College of Allergy, Asthma, and Immunology, American Academy of Allergy, Asthma, and Immunology, and American Thoracic Society workgroup on definition of clinical remission in asthma on treatment</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Annals of Allergy, Asthma &amp; Immunology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.anai.2023.08.609</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37690606</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.anai.2023.08.609</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311663240</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson; Division of Pulmonary, Allergy and Critical Care Medicine, University of Pittsburgh, Pittsburgh; Samuel Bronfman Department of Medicine, Icahn School of Medicine at Mount Sinai, New York; Division of Allergy and Immunology, Department of Pediatrics, Boston Children’s Hospital, Boston; The University of Colorado School of Medicine and Children’s Hospital Colorado, Department of Pediatrics, The Breathing Institute, Aurora; Department of Internal Medicine, Division of Pulmonary, Critical Care, and Sleep Medicine, University of California, Davis School of Medicine, UC Davis Lung Center, Sacramento; Division of Allergy and Immunology, Department of Pediatrics, University of North Carolina, Chapel Hill; Department of Medicine, the University of Chicago, Chicago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311457585</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Treating asthma in the time of COVID</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2022.12.800</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36528110</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2022.12.800</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Health, Behavior and Society, Johns Hopkins Bloomberg School of Public Health, Baltimore, MD, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313561226</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Confirmatory factor analysis of the infant feeding styles questionnaire in infant and toddler child care teachers</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Appetite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.appet.2023.106449</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36621724</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.appet.2023.106449</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre–Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arũnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
+          <t>Tara F. Carr, S. J. Patel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306179989</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Contributors</t>
+          <t>https://openalex.org/W4306180133</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Eosinophilic and noneosinophilic asthma: Beyond severe asthma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -934,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tara F. Carr, S. J. Patel</t>
+          <t>Tara F. Carr, Yen Chung, Christopher S. Ambrose, Pallavi Rane, Andrew Lindsley, Joseph Tkacz, Autumn Burnette</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306180133</t>
+          <t>University of Arizona; AstraZeneca; AstraZeneca; Amgen; Amgen; Inovalon; Howard University</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eosinophilic and noneosinophilic asthma: Beyond severe asthma</t>
+          <t>https://openalex.org/W4319083131</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Racial and Ethnic Disparities in Treatment of Uncontrolled Disease Among Severe, Persistent Asthma Patients: An Analysis of Medicare Fee-for-Service Claims</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Elsevier eBooks</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,79 +1014,84 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Yen Chung, Christopher S. Ambrose, Pallavi Rane, Andrew Lindsley, Joseph Tkacz, Autumn Burnette</t>
+          <t>Autumn F. Burnette, Yen Chung, Christopher S. Ambrose, J.D. Spahn, Pallavi Rane, Y. Wang, Andrew Lindsley, J.P. Tkacz, B. Lewing, Tara F. Carr</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319083131</t>
+          <t>Allergy and Immunology, Howard University, Washington, DC, United States; Payer Evidence, AstraZeneca, Wilmington, DE, United States; AstraZeneca, Gaithersburg, MD, United States; Medical Affairs, Astrazeneca, Wilmington, DE, United States; Amgen, Los Angeles, CA, United States; Amgen, Los Angeles, CA, United States; Amgen, Inc., Thousand Oaks, CA, United States; Inovalon, Bowie, MD, United States; Insights, Inovalon, Bowie, MD, United States; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Racial and Ethnic Disparities in Treatment of Uncontrolled Disease Among Severe, Persistent Asthma Patients: An Analysis of Medicare Fee-for-Service Claims</t>
+          <t>https://openalex.org/W4367606297</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Rates of Asthma Exacerbations Among Severe, Persistent Asthma Patients in the US Following Event Indicating Uncontrolled Disease</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Journal of Allergy and Clinical Immunology</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,29 +1143,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Autumn F. Burnette, Yen Chung, Christopher S. Ambrose, J.D. Spahn, Pallavi Rane, Y. Wang, Andrew Lindsley, J.P. Tkacz, B. Lewing, Tara F. Carr</t>
+          <t>J. Jarczyk, Debbie Stern, Silvia López, Arturo Chavez, Mark J. Snyder, A. Larry Wright, Stefano Guerra, Tara F. Carr, FJ Martinez, William P. Morgan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606297</t>
+          <t>Dept of Pediatrics, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rates of Asthma Exacerbations Among Severe, Persistent Asthma Patients in the US Following Event Indicating Uncontrolled Disease</t>
+          <t>https://openalex.org/W4367609570</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,12 +1173,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J. Jarczyk, Debbie Stern, Silvia López, Arturo Chavez, Mark J. Snyder, A. Larry Wright, Stefano Guerra, Tara F. Carr, FJ Martinez, William P. Morgan</t>
+          <t>Jelena Eremija, Tara F. Carr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367609570</t>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Ariz; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Ariz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
+          <t>https://openalex.org/W4385618859</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>New Evidence on the Development of Atopic Multimorbidity: Are Patients Marching to the Beat of Their Own Drum?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37558364</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eugene H. Chang, Nirushan Harushikesh Narendran, Shireen Samargandy, Nora Odisho, Puneet Shroff, Tara F. Carr, Christopher H. Le</t>
+          <t>Raffaella Nenna, Debra A. Stern, Tara F. Carr, Amber Spangenberg, Anne L. Wright, Fernando D. Martínez, Marilyn Halonen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379157514</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Department of Maternal, Infantile, and Urological Services, Sapienza University of Rome , Rome, Italy; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A pilot prospective longitudinal study comparing dupilumab to surgery in CRSwNP</t>
+          <t>https://openalex.org/W4386467575</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Authorea (Authorea)</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Virology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
+          <t>American Society for Microbiology</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/jvi.00767-23</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jelena Eremija, Tara F. Carr</t>
+          <t>M.E. Wechsler, Tara F. Carr, S. Ponnarambil, T. Li, Scott Caveney, J. Llanos-Ackert, N. Martin, J. Corren</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385618859</t>
+          <t>Denver, CO; Tucson, AZ; Cambridge, United Kingdom; Gaithersburg, MD; Thousand Oaks, CA; Thousand Oaks, CA; Cambridge, United Kingdom; Los Angeles, CA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>New Evidence on the Development of Atopic Multimorbidity: Are Patients Marching to the Beat of Their Own Drum?</t>
+          <t>https://openalex.org/W4388523944</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>TEZEPELUMAB EFFICACY IN PATIENTS WITH SEVERE ASTHMA BY BLOOD EOSINOPHIL COUNT AND PERENNIAL ALLERGY (DESTINATION)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Annals of Allergy, Asthma &amp; Immunology</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37558364</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Raffaella Nenna, Debra A. Stern, Tara F. Carr, Amber Spangenberg, Anne L. Wright, Fernando D. Martínez, Marilyn Halonen</t>
+          <t>Stephen Tully, N. Odisho Domit, Tara F. Carr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386467575</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
+          <t>https://openalex.org/W4388527769</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>DESENSITIZATION TO IVIG IN A PATIENT WITH A COMPLEX ALLERGY HISTORY</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Journal of Virology</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>American Society for Microbiology</t>
+          <t>Annals of Allergy, Asthma &amp; Immunology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jvi.00767-23</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jvi.00767-23</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,162 +1578,172 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lauren D Benton, Nicolás López-Gálvez, Chloe Herman, Greg Caporaso, Emily K. Cope, Cecilia Rosales, Mercedes Gameros, Nathan Lothrop, Fernando D. Martínez, Anne L. Wright, Tara F. Carr, Paloma I. Beamer</t>
+          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre‐Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arũnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387161049</t>
+          <t xml:space="preserve">MASK-air, Montpellier, France; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Environmental and Structural Factors Associated with Bacterial Diversity in Household Dust Across the Arizona-Sonora Border</t>
+          <t>https://openalex.org/W4306179989</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>Contributors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37841844</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M.E. Wechsler, Tara F. Carr, S. Ponnarambil, T. Li, Scott Caveney, J. Llanos-Ackert, N. Martin, J. Corren</t>
+          <t>Eugene H. Chang, Nirushan Harushikesh Narendran, Shireen Samargandy, Nora Odisho, Puneet Shroff, Tara F. Carr, Christopher H. Le</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388523944</t>
+          <t>The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TEZEPELUMAB EFFICACY IN PATIENTS WITH SEVERE ASTHMA BY BLOOD EOSINOPHIL COUNT AND PERENNIAL ALLERGY (DESTINATION)</t>
+          <t>https://openalex.org/W4379157514</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>A pilot prospective longitudinal study comparing dupilumab to surgery in CRSwNP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Annals of Allergy, Asthma &amp; Immunology</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Authorea (Authorea)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Stephen Tully, N. Odisho Domit, Tara F. Carr</t>
+          <t>Lauren D Benton, Nicolas López-Gálvez, Chloe Herman, Greg Caporaso, Emily K. Cope, Cecilia Rosales, Mercedes Gameros, Nathan Lothrop, Fernando D. Martínez, Anne L. Wright, Tara F. Carr, Paloma I. Beamer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388527769</t>
+          <t>University of Arizona; University of Arizona; Northern Arizona University; Northern Arizona University; Northern Arizona University; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DESENSITIZATION TO IVIG IN A PATIENT WITH A COMPLEX ALLERGY HISTORY</t>
+          <t>https://openalex.org/W4387161049</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>Environmental and Structural Factors Associated with Bacterial Diversity in Household Dust Across the Arizona-Sonora Border</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Annals of Allergy, Asthma &amp; Immunology</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37841844</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Tara F Carr_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Tara F Carr_2023.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Punita Ponda, Tara F. Carr, Matthew A. Rank, Jean Bousquet</t>
+          <t>Punita Ponda, Tara Carr, Matthew A. Rank, Jean Bousquet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Debra A. Stern, Wayne J. Morgan, Stefano Guerra, Fernando D. Martínez</t>
+          <t>Tara Carr, Debra A. Stern, Wayne J. Morgan, Stefano Guerra, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -708,22 +708,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Merritt L. Fajt, Monica Kraft, Wanda Phipatanakul, Stanley J. Szefler, Amir A. Zeki, David B. Peden, Steven R. White</t>
+          <t>Tara Carr, Amanda L. Thompson, Sara E. Benjamin‐Neelon, Heather Wasser, Dianne S. Ward</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson; Division of Pulmonary, Allergy and Critical Care Medicine, University of Pittsburgh, Pittsburgh; Samuel Bronfman Department of Medicine, Icahn School of Medicine at Mount Sinai, New York; Division of Allergy and Immunology, Department of Pediatrics, Boston Children’s Hospital, Boston; The University of Colorado School of Medicine and Children’s Hospital Colorado, Department of Pediatrics, The Breathing Institute, Aurora; Department of Internal Medicine, Division of Pulmonary, Critical Care, and Sleep Medicine, University of California, Davis School of Medicine, UC Davis Lung Center, Sacramento; Division of Allergy and Immunology, Department of Pediatrics, University of North Carolina, Chapel Hill; Department of Medicine, the University of Chicago, Chicago</t>
+          <t>Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Health, Behavior and Society, Johns Hopkins Bloomberg School of Public Health, Baltimore, MD, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4311457585</t>
+          <t>https://openalex.org/W4313561226</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Treating asthma in the time of COVID</t>
+          <t>Confirmatory factor analysis of the infant feeding styles questionnaire in infant and toddler child care teachers</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Journal of Allergy and Clinical Immunology</t>
+          <t>Appetite</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2022.12.800</t>
+          <t>https://doi.org/10.1016/j.appet.2023.106449</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36528110</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36621724</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2022.12.800</t>
+          <t>https://doi.org/10.1016/j.appet.2023.106449</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,22 +795,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Amanda L. Thompson, Sara E. Benjamin‐Neelon, Heather Wasser, Dianne S. Ward</t>
+          <t>Tara F. Carr, Merritt L. Fajt, Monica Kraft, Wanda Phipatanakul, Stanley J. Szefler, Amir A. Zeki, David B. Peden, Steven R. White</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Health, Behavior and Society, Johns Hopkins Bloomberg School of Public Health, Baltimore, MD, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA; Department of Nutrition, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC, USA</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson; Division of Pulmonary, Allergy and Critical Care Medicine, University of Pittsburgh, Pittsburgh; Samuel Bronfman Department of Medicine, Icahn School of Medicine at Mount Sinai, New York; Division of Allergy and Immunology, Department of Pediatrics, Boston Children’s Hospital, Boston; The University of Colorado School of Medicine and Children’s Hospital Colorado, Department of Pediatrics, The Breathing Institute, Aurora; Department of Internal Medicine, Division of Pulmonary, Critical Care, and Sleep Medicine, University of California, Davis School of Medicine, UC Davis Lung Center, Sacramento; Division of Allergy and Immunology, Department of Pediatrics, University of North Carolina, Chapel Hill; Department of Medicine, the University of Chicago, Chicago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313561226</t>
+          <t>https://openalex.org/W4311457585</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Confirmatory factor analysis of the infant feeding styles questionnaire in infant and toddler child care teachers</t>
+          <t>Treating asthma in the time of COVID</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Appetite</t>
+          <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -830,22 +830,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.appet.2023.106449</t>
+          <t>https://doi.org/10.1016/j.jaci.2022.12.800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publisher-specific-oa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>acceptedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36621724</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36528110</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.appet.2023.106449</t>
+          <t>https://doi.org/10.1016/j.jaci.2022.12.800</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tara F. Carr, S. J. Patel</t>
+          <t>Raffaella Nenna, Debra A. Stern, Tara Carr, Amber Spangenberg, Anne L. Wright, Fernando D. Martínez, Marilyn Halonen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Department of Maternal, Infantile, and Urological Services, Sapienza University of Rome , Rome, Italy; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306180133</t>
+          <t>https://openalex.org/W4386467575</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eosinophilic and noneosinophilic asthma: Beyond severe asthma</t>
+          <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elsevier eBooks</t>
+          <t>Journal of Virology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Society for Microbiology</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
+          <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,49 +952,49 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
+          <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Yen Chung, Christopher S. Ambrose, Pallavi Rane, Andrew Lindsley, Joseph Tkacz, Autumn Burnette</t>
+          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre‐Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arūnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>University of Arizona; AstraZeneca; AstraZeneca; Amgen; Amgen; Inovalon; Howard University</t>
+          <t xml:space="preserve">MASK-air, Montpellier, France; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319083131</t>
+          <t>https://openalex.org/W4306179989</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Racial and Ethnic Disparities in Treatment of Uncontrolled Disease Among Severe, Persistent Asthma Patients: An Analysis of Medicare Fee-for-Service Claims</t>
+          <t>Contributors</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Journal of Allergy and Clinical Immunology</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1044,54 +1044,54 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Autumn F. Burnette, Yen Chung, Christopher S. Ambrose, J.D. Spahn, Pallavi Rane, Y. Wang, Andrew Lindsley, J.P. Tkacz, B. Lewing, Tara F. Carr</t>
+          <t>Tara Carr, S. J. Patel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Allergy and Immunology, Howard University, Washington, DC, United States; Payer Evidence, AstraZeneca, Wilmington, DE, United States; AstraZeneca, Gaithersburg, MD, United States; Medical Affairs, Astrazeneca, Wilmington, DE, United States; Amgen, Los Angeles, CA, United States; Amgen, Los Angeles, CA, United States; Amgen, Inc., Thousand Oaks, CA, United States; Inovalon, Bowie, MD, United States; Insights, Inovalon, Bowie, MD, United States; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, United States</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606297</t>
+          <t>https://openalex.org/W4306180133</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rates of Asthma Exacerbations Among Severe, Persistent Asthma Patients in the US Following Event Indicating Uncontrolled Disease</t>
+          <t>Eosinophilic and noneosinophilic asthma: Beyond severe asthma</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,54 +1131,54 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
+          <t>https://doi.org/10.1016/b978-0-323-85419-1.00005-0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J. Jarczyk, Debbie Stern, Silvia López, Arturo Chavez, Mark J. Snyder, A. Larry Wright, Stefano Guerra, Tara F. Carr, FJ Martinez, William P. Morgan</t>
+          <t>Tara Carr, Yen Chung, Christopher S. Ambrose, Pallavi Rane, Andrew Lindsley, Joseph Tkacz, Autumn Burnette</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dept of Pediatrics, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States</t>
+          <t>University of Arizona; AstraZeneca; AstraZeneca; Amgen; Amgen; Inovalon; Howard University</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367609570</t>
+          <t>https://openalex.org/W4319083131</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
+          <t>Racial and Ethnic Disparities in Treatment of Uncontrolled Disease Among Severe, Persistent Asthma Patients: An Analysis of Medicare Fee-for-Service Claims</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
+          <t>https://doi.org/10.1016/j.jaci.2022.12.145</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jelena Eremija, Tara F. Carr</t>
+          <t>Autumn F. Burnette, Yen Chung, Christopher S. Ambrose, J.D. Spahn, Pallavi Rane, Y. Wang, Andrew Lindsley, J.P. Tkacz, B. Lewing, Tara Carr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Ariz; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Ariz</t>
+          <t>Allergy and Immunology, Howard University, Washington, DC, United States; Payer Evidence, AstraZeneca, Wilmington, DE, United States; AstraZeneca, Gaithersburg, MD, United States; Medical Affairs, Astrazeneca, Wilmington, DE, United States; Amgen, Los Angeles, CA, United States; Amgen, Los Angeles, CA, United States; Amgen, Inc., Thousand Oaks, CA, United States; Inovalon, Bowie, MD, United States; Insights, Inovalon, Bowie, MD, United States; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385618859</t>
+          <t>https://openalex.org/W4367606297</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>New Evidence on the Development of Atopic Multimorbidity: Are Patients Marching to the Beat of Their Own Drum?</t>
+          <t>Rates of Asthma Exacerbations Among Severe, Persistent Asthma Patients in the US Following Event Indicating Uncontrolled Disease</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37558364</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6001</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Raffaella Nenna, Debra A. Stern, Tara F. Carr, Amber Spangenberg, Anne L. Wright, Fernando D. Martínez, Marilyn Halonen</t>
+          <t>J. Jarczyk, Debbie Stern, Silvia López, Arturo Chavez, Mark J. Snyder, A. Larry Wright, Stefano Guerra, Tara Carr, FJ Martinez, William P. Morgan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Department of Maternal, Infantile, and Urological Services, Sapienza University of Rome , Rome, Italy; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA</t>
+          <t>Dept of Pediatrics, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States; Asthma and Airway Disease Research Center, University of Arizona College of Medicine – Tucson, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386467575</t>
+          <t>https://openalex.org/W4367609570</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
+          <t>Congruence Between Remote and In-person Spirometry in the Tucson Children's Respiratory Study</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Journal of Virology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>American Society for Microbiology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jvi.00767-23</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jvi.00767-23</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a2998</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M.E. Wechsler, Tara F. Carr, S. Ponnarambil, T. Li, Scott Caveney, J. Llanos-Ackert, N. Martin, J. Corren</t>
+          <t>Eugene H. Chang, Nirushan Harushikesh Narendran, Shireen Samargandy, Nora Odisho, Puneet Shroff, Tara F. Carr, Christopher H. Le</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Denver, CO; Tucson, AZ; Cambridge, United Kingdom; Gaithersburg, MD; Thousand Oaks, CA; Thousand Oaks, CA; Cambridge, United Kingdom; Los Angeles, CA</t>
+          <t>The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388523944</t>
+          <t>https://openalex.org/W4379157514</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TEZEPELUMAB EFFICACY IN PATIENTS WITH SEVERE ASTHMA BY BLOOD EOSINOPHIL COUNT AND PERENNIAL ALLERGY (DESTINATION)</t>
+          <t>A pilot prospective longitudinal study comparing dupilumab to surgery in CRSwNP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Annals of Allergy, Asthma &amp; Immunology</t>
+          <t>Authorea (Authorea)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
+          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
+          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,32 +1491,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Stephen Tully, N. Odisho Domit, Tara F. Carr</t>
+          <t>Jelena Eremija, Tara Carr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; </t>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Ariz; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, Ariz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388527769</t>
+          <t>https://openalex.org/W4385618859</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DESENSITIZATION TO IVIG IN A PATIENT WITH A COMPLEX ALLERGY HISTORY</t>
+          <t>New Evidence on the Development of Atopic Multimorbidity: Are Patients Marching to the Beat of Their Own Drum?</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Annals of Allergy, Asthma &amp; Immunology</t>
+          <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
+          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37558364</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
+          <t>https://doi.org/10.1016/j.jaip.2023.05.032</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,62 +1578,62 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aram Antó, Josep M. Antó, Fabio Balli, Annabelle Bédard, Jean Bousquet, Jean Bousquet, Luisa Brussino, Pierre‐Régis Burgel, Emilie Burte, Carlos A. Camargo, Giorgio Walter Canonica, Tara F. Carr, Thomas B. Casale, Lídia Casas, Guillaume Chassagnon, Wienczyslawa Czarlewski, Shyamali Dharmage, Orianne Dumas, João Fonseca, Mina Gaga, Bilun Gemicioğlu, Sven Günther, Stéfanie Habib, Kohei Hasegawa, Joachim Heinrich, Nur Sabrina Idrose, Bénédicte Jacquemin, Ludger Klimek, Violeta Kvedarienė, Bénédicte Leynaert, Zhen Li, Renaud Louis, Clémence Martin, Andréanne Morin, Nicole Le Moual, Rachel Nadif, Hiroyuki Nagase, Carole Ober, Jean Pastré, S. J. Patel, Francesca Puggioni, Francisco Gómez Real, Nicolás Roche, Joaquı́n Sastre, Marine Savouré, Nathan Schoettler, Nicola Scichilone, Bernardo Sousa‐Pinto, Maho Suzukawa, Laura Toivonen, Arũnas Valiulis, Raphaëlle Varraso, Arzu Yorgancıoğlu, Eleptherios Zervas, Torsten Zuberbier</t>
+          <t>Lauren D Benton, Nicolás López-Gálvez, Chloe Herman, Greg Caporaso, Emily K. Cope, Cecilia Rosales, Mercedes Gameros, Nathan Lothrop, Fernando D. Martínez, Anne L. Wright, Tara Carr, Paloma I. Beamer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">MASK-air, Montpellier, France; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona; University of Arizona; Northern Arizona University; Northern Arizona University; Northern Arizona University; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306179989</t>
+          <t>https://openalex.org/W4387161049</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Contributors</t>
+          <t>Environmental and Structural Factors Associated with Bacterial Diversity in Household Dust Across the Arizona-Sonora Border</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Elsevier eBooks</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1648,59 +1648,59 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37841844</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-85419-1.00066-9</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Eugene H. Chang, Nirushan Harushikesh Narendran, Shireen Samargandy, Nora Odisho, Puneet Shroff, Tara F. Carr, Christopher H. Le</t>
+          <t>M.E. Wechsler, Tara Carr, S. Ponnarambil, T. Li, Scott Caveney, J. Llanos-Ackert, N. Martin, J. Corren</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson</t>
+          <t>Denver, CO; Tucson, AZ; Cambridge, United Kingdom; Gaithersburg, MD; Thousand Oaks, CA; Thousand Oaks, CA; Cambridge, United Kingdom; Los Angeles, CA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379157514</t>
+          <t>https://openalex.org/W4388523944</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A pilot prospective longitudinal study comparing dupilumab to surgery in CRSwNP</t>
+          <t>TEZEPELUMAB EFFICACY IN PATIENTS WITH SEVERE ASTHMA BY BLOOD EOSINOPHIL COUNT AND PERENNIAL ALLERGY (DESTINATION)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Authorea (Authorea)</t>
+          <t>Annals of Allergy, Asthma &amp; Immunology</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
+          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
+          <t>https://doi.org/10.1016/j.anai.2023.08.141</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,57 +1752,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lauren D Benton, Nicolas López-Gálvez, Chloe Herman, Greg Caporaso, Emily K. Cope, Cecilia Rosales, Mercedes Gameros, Nathan Lothrop, Fernando D. Martínez, Anne L. Wright, Tara F. Carr, Paloma I. Beamer</t>
+          <t>Stephen Tully, N. Odisho Domit, Tara Carr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Arizona; Northern Arizona University; Northern Arizona University; Northern Arizona University; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387161049</t>
+          <t>https://openalex.org/W4388527769</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Environmental and Structural Factors Associated with Bacterial Diversity in Household Dust Across the Arizona-Sonora Border</t>
+          <t>DESENSITIZATION TO IVIG IN A PATIENT WITH A COMPLEX ALLERGY HISTORY</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>Annals of Allergy, Asthma &amp; Immunology</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
+          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37841844</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3325336/v1</t>
+          <t>https://doi.org/10.1016/j.anai.2023.08.353</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
